--- a/docs/DB_tables.xlsx
+++ b/docs/DB_tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Dtype:</t>
   </si>
@@ -120,6 +120,9 @@
     <t>JSON from ALAMUT</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>Info from Alamut (split or enter as JSON?)</t>
   </si>
   <si>
@@ -136,6 +139,33 @@
   </si>
   <si>
     <t>reference allele base</t>
+  </si>
+  <si>
+    <t>Type of panel (e.g. APN, HSP, Filtex, Exome, ALS)</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Varchar</t>
+  </si>
+  <si>
+    <t>e.g. 1995</t>
+  </si>
+  <si>
+    <t>e.g. 432_13</t>
+  </si>
+  <si>
+    <t>varchar?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>F/M</t>
+  </si>
+  <si>
+    <t>Float</t>
   </si>
 </sst>
 </file>
@@ -513,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -553,46 +583,68 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -600,7 +652,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -608,84 +663,122 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="F25" t="s">
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
         <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DB_tables.xlsx
+++ b/docs/DB_tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Dtype:</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Patient_info</t>
   </si>
   <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
     <t>Birthyear</t>
   </si>
   <si>
-    <t>Clinical information</t>
-  </si>
-  <si>
     <t>Family ID</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Info/comments</t>
   </si>
   <si>
-    <t>Seq_variants</t>
-  </si>
-  <si>
     <t>Chr</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>% X &gt; 30 X</t>
   </si>
   <si>
-    <t>% of targeted bases have a higher than 20 X coverage</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -166,13 +154,61 @@
   </si>
   <si>
     <t>Float</t>
+  </si>
+  <si>
+    <t>Users:</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Panels:</t>
+  </si>
+  <si>
+    <t>Fkey - panels</t>
+  </si>
+  <si>
+    <t>Type panel</t>
+  </si>
+  <si>
+    <t>pv2-1, exom, filtex</t>
+  </si>
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>Clinical_info</t>
+  </si>
+  <si>
+    <t>raw_variants</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>hg19</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>QC:</t>
+  </si>
+  <si>
+    <t>info fra Hsmetrics (JSON?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +220,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,14 +258,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,16 +615,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -581,208 +654,276 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/DB_tables.xlsx
+++ b/docs/DB_tables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14565" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>Dtype:</t>
   </si>
@@ -39,42 +39,9 @@
     <t>Patient_info</t>
   </si>
   <si>
-    <t>Birthyear</t>
-  </si>
-  <si>
-    <t>Family ID</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
     <t>Info/comments</t>
   </si>
   <si>
-    <t>Chr</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Alt</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>Runs</t>
-  </si>
-  <si>
     <t>SBS</t>
   </si>
   <si>
@@ -87,15 +54,6 @@
     <t>Date of ID</t>
   </si>
   <si>
-    <t>Mean_target_cov</t>
-  </si>
-  <si>
-    <t>% X &gt; 20 X</t>
-  </si>
-  <si>
-    <t>% X &gt; 30 X</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -138,9 +96,6 @@
     <t>Varchar</t>
   </si>
   <si>
-    <t>e.g. 1995</t>
-  </si>
-  <si>
     <t>e.g. 432_13</t>
   </si>
   <si>
@@ -153,9 +108,6 @@
     <t>F/M</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>Users:</t>
   </si>
   <si>
@@ -174,18 +126,9 @@
     <t>Fkey - panels</t>
   </si>
   <si>
-    <t>Type panel</t>
-  </si>
-  <si>
     <t>pv2-1, exom, filtex</t>
   </si>
   <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t>Clinical_info</t>
-  </si>
-  <si>
     <t>raw_variants</t>
   </si>
   <si>
@@ -201,14 +144,200 @@
     <t>QC:</t>
   </si>
   <si>
-    <t>info fra Hsmetrics (JSON?)</t>
+    <t>slektsnummer</t>
+  </si>
+  <si>
+    <t>clinical_info</t>
+  </si>
+  <si>
+    <t>family_ID</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>patient_ID</t>
+  </si>
+  <si>
+    <t>panel_name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>SAMPLE_NAME</t>
+  </si>
+  <si>
+    <t>GENOME_SIZE</t>
+  </si>
+  <si>
+    <t>BAIT_TERRITORY</t>
+  </si>
+  <si>
+    <t>TARGET_TERRITORY</t>
+  </si>
+  <si>
+    <t>BAIT_DESIGN_EFFICIENCY</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>TOTAL_READS</t>
+  </si>
+  <si>
+    <t>PF_READS</t>
+  </si>
+  <si>
+    <t>PF_UNIQUE_READS</t>
+  </si>
+  <si>
+    <t>PCT_PF_READS</t>
+  </si>
+  <si>
+    <t>PCT_PF_UQ_READS</t>
+  </si>
+  <si>
+    <t>PF_UQ_READS_ALIGNED</t>
+  </si>
+  <si>
+    <t>PCT_PF_UQ_READS_ALIGNED</t>
+  </si>
+  <si>
+    <t>PF_UQ_BASES_ALIGNED</t>
+  </si>
+  <si>
+    <t>ON_BAIT_BASES</t>
+  </si>
+  <si>
+    <t>NEAR_BAIT_BASES</t>
+  </si>
+  <si>
+    <t>OFF_BAIT_BASES</t>
+  </si>
+  <si>
+    <t>ON_TARGET_BASES</t>
+  </si>
+  <si>
+    <t>PCT_SELECTED_BASES</t>
+  </si>
+  <si>
+    <t>PCT_OFF_BAIT</t>
+  </si>
+  <si>
+    <t>ON_BAIT_VS_SELECTED</t>
+  </si>
+  <si>
+    <t>MEAN_BAIT_COVERAGE</t>
+  </si>
+  <si>
+    <t>MEAN_TARGET_COVERAGE</t>
+  </si>
+  <si>
+    <t>PCT_USABLE_BASES_ON_BAIT</t>
+  </si>
+  <si>
+    <t>PCT_USABLE_BASES_ON_TARGET</t>
+  </si>
+  <si>
+    <t>FOLD_ENRICHMENT</t>
+  </si>
+  <si>
+    <t>ZERO_CVG_TARGETS_PCT</t>
+  </si>
+  <si>
+    <t>FOLD_80_BASE_PENALTY</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_2X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_10X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_20X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_30X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_40X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_50X</t>
+  </si>
+  <si>
+    <t>PCT_TARGET_BASES_100X</t>
+  </si>
+  <si>
+    <t>HS_LIBRARY_SIZE</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_10X</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_20X</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_30X</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_40X</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_50X</t>
+  </si>
+  <si>
+    <t>HS_PENALTY_100X</t>
+  </si>
+  <si>
+    <t>AT_DROPOUT</t>
+  </si>
+  <si>
+    <t>GC_DROPOUT</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>variant_annotation</t>
+  </si>
+  <si>
+    <t>interpretations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,13 +369,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,7 +399,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -270,17 +411,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Fulgt hyperkobling" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Fulgt hyperkobling" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Fulgt hyperkobling" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Fulgt hyperkobling" xfId="10" builtinId="9" hidden="1"/>
+  <cellStyles count="12">
+    <cellStyle name="Benyttet hyperkobling" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Benyttet hyperkobling" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Dårlig" xfId="11" builtinId="27"/>
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="5" builtinId="8" hidden="1"/>
@@ -290,6 +435,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -615,21 +765,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,284 +796,607 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" t="s">
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" t="s">
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/DB_tables.xlsx
+++ b/docs/DB_tables.xlsx
@@ -327,10 +327,10 @@
     <t>alt</t>
   </si>
   <si>
-    <t>variant_annotation</t>
-  </si>
-  <si>
     <t>interpretations</t>
+  </si>
+  <si>
+    <t>alamut_annotation</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -984,7 +984,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
